--- a/JBNU_Statistics_Ph.D/2nd semester/2021년 춘계학술논문발표회/동영상 및 발표자료 링크.xlsx
+++ b/JBNU_Statistics_Ph.D/2nd semester/2021년 춘계학술논문발표회/동영상 및 발표자료 링크.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minjimin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workplace\GSS_MBA_for_Big_Data\JBNU_Statistics_Ph.D\2nd semester\2021년 춘계학술논문발표회\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="645">
   <si>
     <t>submit_id</t>
   </si>
@@ -1963,12 +1963,20 @@
 T : 학생세션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>추가자료링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://drive.google.com/folderview?id=1dgrZAsnhi4hsECikc48JvYB954n8Y-3m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="나눔고딕"/>
@@ -1979,6 +1987,13 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="나눔고딕"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2074,10 +2089,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2103,9 +2119,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2383,10 +2401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J103"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5602,6 +5620,14 @@
         <v>1232</v>
       </c>
     </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>644</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:J98">
     <sortCondition ref="A1"/>
@@ -5610,8 +5636,11 @@
     <mergeCell ref="A1:XFD5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B104" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12페이지 &amp;P</oddFooter>
